--- a/results/mp/logistic/corona/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
@@ -43,22 +43,25 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
@@ -67,112 +70,109 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7636986301369864</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K3">
-        <v>0.9083333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6551724137931034</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
         <v>19</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.631578947368421</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5588235294117647</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5135135135135135</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4444444444444444</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8511749347258486</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L8">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="M8">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.423728813559322</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3546511627906977</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C10">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>333</v>
+        <v>31</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2080536912751678</v>
+        <v>0.3527131782945737</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>118</v>
+        <v>334</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K11">
-        <v>0.7887323943661971</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L11">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.09523809523809523</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1099,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008064516129032258</v>
+        <v>0.009035172636334301</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0.22</v>
@@ -1117,31 +1117,31 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>3075</v>
+        <v>3071</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>28</v>
-      </c>
-      <c r="M13">
-        <v>28</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1149,13 +1149,13 @@
         <v>31</v>
       </c>
       <c r="K14">
-        <v>0.7734375</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1175,13 +1175,13 @@
         <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7682926829268293</v>
+        <v>0.75625</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1201,13 +1201,13 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7625</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1227,13 +1227,13 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.7575757575757576</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1253,13 +1253,13 @@
         <v>35</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1279,13 +1279,13 @@
         <v>36</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1305,13 +1305,13 @@
         <v>37</v>
       </c>
       <c r="K20">
-        <v>0.7021276595744681</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1331,13 +1331,13 @@
         <v>38</v>
       </c>
       <c r="K21">
-        <v>0.6976744186046512</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1357,13 +1357,13 @@
         <v>39</v>
       </c>
       <c r="K22">
-        <v>0.6825396825396826</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1383,13 +1383,13 @@
         <v>40</v>
       </c>
       <c r="K23">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1409,13 +1409,13 @@
         <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6285714285714286</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1435,13 +1435,13 @@
         <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6264705882352941</v>
+        <v>0.625</v>
       </c>
       <c r="L25">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1461,13 +1461,13 @@
         <v>43</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1487,13 +1487,13 @@
         <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5830508474576271</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L27">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="M27">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1513,13 +1513,13 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0.58</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1539,13 +1539,13 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5690376569037657</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L29">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="M29">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1565,13 +1565,13 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5531914893617021</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L30">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="M30">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1591,7 +1591,7 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>0.5142857142857142</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L31">
         <v>36</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1617,13 +1617,13 @@
         <v>49</v>
       </c>
       <c r="K32">
-        <v>0.4719101123595505</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1643,13 +1643,13 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>0.3461538461538461</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1669,13 +1669,13 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.3287671232876712</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1695,25 +1695,25 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.007225887527489789</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N35">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.4399999999999999</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>3160</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
